--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test-proj\Gold-Box_Upto-Sprint_6\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707A438-7A0E-447D-AD12-63CDAB2E5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -17,26 +23,14 @@
     <sheet name="ImagePath" sheetId="8" r:id="rId8"/>
     <sheet name="Sprint-5-Categ&amp;Sub-Negative" sheetId="9" r:id="rId9"/>
     <sheet name="Sprint-6 Negative" sheetId="10" r:id="rId10"/>
+    <sheet name="GoldBharat" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="545">
   <si>
     <t>Schemes</t>
   </si>
@@ -1030,7 +1024,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>AcNo2</t>
     </r>
@@ -1882,7 +1875,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>AddCategory</t>
     </r>
@@ -1891,7 +1883,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2123,20 +2114,19 @@
   </si>
   <si>
     <t>sdfghxcvb</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2170,7 +2160,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2182,13 +2171,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF6A3E3E"/>
       <name val="Consolas"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2236,7 +2223,6 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2250,7 +2236,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2278,7 +2263,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2311,136 +2295,8 @@
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="48">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2449,7 +2305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,7 +2365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,13 +2377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,176 +2411,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2732,282 +2420,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3023,7 +2467,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3039,7 +2483,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3051,7 +2495,7 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3066,115 +2510,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3432,33 +2823,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="$A29:$XFD46"/>
+      <selection activeCell="A29" sqref="A29:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="67" customFormat="1" spans="7:7">
-      <c r="G1" s="69" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3466,25 +2857,25 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="59" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="59" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="59" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3492,25 +2883,25 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="59" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3518,25 +2909,25 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="59" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="59" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="59" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3544,25 +2935,25 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="59" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3570,25 +2961,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="59" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="59" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="59" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3596,25 +2987,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="59" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="59" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="71" t="s">
+      <c r="K8" s="59" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3622,25 +3013,25 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="59" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="59" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="59" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3648,25 +3039,25 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="59" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3674,25 +3065,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="59" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="59" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="59" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3700,25 +3091,25 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="59" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="59" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="59" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3726,25 +3117,25 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="59" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="59" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="59" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3752,29 +3143,29 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
+    <row r="16" spans="1:11">
       <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
@@ -3783,31 +3174,31 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="59" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="59" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="59" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="59" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="59" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3815,31 +3206,31 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="59" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="59" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="59" t="s">
         <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="71" t="s">
+      <c r="M18" s="59" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3847,31 +3238,31 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="59" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="59" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="59" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="59" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="59" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3879,45 +3270,45 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="59" t="s">
         <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="10:13">
+    <row r="21" spans="1:13">
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="59" t="s">
         <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="59" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3925,31 +3316,31 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="59" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="59" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="59" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3957,31 +3348,31 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="59" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="59" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="59" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="59" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3989,31 +3380,31 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="59" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="59" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="59" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4021,192 +3412,189 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="59" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" s="68" customFormat="1" spans="1:1">
-      <c r="A29" s="68" t="s">
+    <row r="29" spans="1:13" s="57" customFormat="1">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" s="10" customFormat="1" spans="1:2">
-      <c r="A30" s="70" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" spans="1:2">
-      <c r="A31" s="70" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" s="10" customFormat="1" spans="1:2">
-      <c r="A32" s="70" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="1" spans="1:2">
-      <c r="A33" s="70" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:2">
-      <c r="A34" s="70" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:2">
-      <c r="A35" s="70" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" s="10" customFormat="1" spans="1:2">
-      <c r="A36" s="70" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="10" customFormat="1" spans="1:2">
-      <c r="A37" s="70" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="1" spans="1:2">
-      <c r="A38" s="70" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" s="10" customFormat="1" spans="1:2">
-      <c r="A39" s="70" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="1" spans="1:2">
-      <c r="A40" s="70" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" s="10" customFormat="1" spans="1:2">
-      <c r="A41" s="70" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="1" spans="1:2">
-      <c r="A42" s="70" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:2">
-      <c r="A43" s="70" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" s="10" customFormat="1"/>
-    <row r="45" s="68" customFormat="1" spans="1:1">
-      <c r="A45" s="68" t="s">
+    <row r="45" spans="1:2" s="57" customFormat="1">
+      <c r="A45" s="57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" s="10" customFormat="1" spans="1:2">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="36.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111"/>
-    <col min="7" max="7" width="11.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>486</v>
       </c>
@@ -4215,19 +3603,19 @@
       <c r="A2" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="59" t="s">
         <v>294</v>
       </c>
       <c r="C2" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="59" t="s">
         <v>487</v>
       </c>
       <c r="E2" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="73" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4247,7 +3635,7 @@
       <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="73" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4255,36 +3643,36 @@
       <c r="A4" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="59" t="s">
         <v>495</v>
       </c>
       <c r="C4" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="59" t="s">
         <v>495</v>
       </c>
       <c r="E4" t="s">
         <v>477</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="73" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="5:6">
+    <row r="5" spans="1:6">
       <c r="E5" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="73" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:1">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>374</v>
       </c>
@@ -4295,12 +3683,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:1">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -4308,7 +3696,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>503</v>
       </c>
@@ -4316,7 +3704,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>505</v>
       </c>
@@ -4324,12 +3712,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:1">
+    <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -4337,7 +3725,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>503</v>
       </c>
@@ -4345,7 +3733,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>505</v>
       </c>
@@ -4353,81 +3741,81 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:1">
+    <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>374</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>510</v>
       </c>
       <c r="C20" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:1">
+    <row r="21" spans="1:3" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>513</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="59" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>515</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="59" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="59" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="59" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="59" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="59" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:3" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>524</v>
       </c>
@@ -4435,7 +3823,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>526</v>
       </c>
@@ -4443,7 +3831,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:3">
+    <row r="32" spans="1:3" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>528</v>
       </c>
@@ -4454,35 +3842,35 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>531</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="59" t="s">
         <v>532</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>533</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="59" t="s">
         <v>532</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="59" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>534</v>
       </c>
@@ -4490,7 +3878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="1:7">
       <c r="F36" t="s">
         <v>535</v>
       </c>
@@ -4498,28 +3886,28 @@
         <v>536</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" spans="1:1">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:7" s="2" customFormat="1">
+      <c r="A37" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="59" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" spans="1:1">
+    <row r="40" spans="1:7" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>374</v>
       </c>
@@ -4532,361 +3920,387 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F4E642-8356-48B6-9773-31E5712953C5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="56" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="56" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="56" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="56" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="56" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="56" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="56" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="56" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="56" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="56" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="56" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="56" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="56" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="56" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="56" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="56" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="56" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="56" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="56" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="56" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="56" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="56" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="56" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="56" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="56" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="56" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="56" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="56" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="56" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="56" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="56" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="56" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="56" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="56" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="56" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="56" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="56" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="56" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="56" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="56" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="56" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="56" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="56" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="5" width="22.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="15.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="23.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="20.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="22.4444444444444" customWidth="1"/>
+    <col min="3" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -4897,36 +4311,36 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="51" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="59" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="49" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4962,13 +4376,13 @@
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="59" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4990,55 +4404,55 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="59" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="49" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="50" t="s">
         <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="50" t="s">
         <v>161</v>
       </c>
       <c r="G16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -5049,7 +4463,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -5060,7 +4474,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -5071,18 +4485,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="59" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -5094,28 +4508,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="49" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5149,10 +4563,10 @@
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="59" t="s">
         <v>185</v>
       </c>
       <c r="D25" t="s">
@@ -5161,10 +4575,10 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="59" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
@@ -5184,7 +4598,7 @@
       <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="50" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
@@ -5227,43 +4641,43 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="71" t="s">
+      <c r="I28" s="59" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="49" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -5273,7 +4687,7 @@
       <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="61"/>
+      <c r="D31" s="8"/>
       <c r="G31" t="s">
         <v>200</v>
       </c>
@@ -5281,27 +4695,27 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="59" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -5318,7 +4732,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -5335,7 +4749,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -5352,12 +4766,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="63" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="53" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -5380,19 +4794,19 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="56" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="49" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="56"/>
+    <row r="40" spans="1:9">
+      <c r="A40" s="49"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="59" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
@@ -5401,7 +4815,7 @@
       <c r="D41">
         <v>12345</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="59" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
@@ -5418,25 +4832,25 @@
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="51" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5444,34 +4858,34 @@
       <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="75" t="s">
+      <c r="G43" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="75" t="s">
+      <c r="H43" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="71" t="s">
+      <c r="I43" s="59" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="56" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -5482,44 +4896,44 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="59" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="59" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="59" t="s">
         <v>245</v>
       </c>
       <c r="C51" t="s">
@@ -5527,18 +4941,18 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="49" t="s">
         <v>248</v>
       </c>
       <c r="D53" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="64"/>
+    <row r="54" spans="1:4">
+      <c r="D54" s="54"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -5558,10 +4972,10 @@
       <c r="A56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="59" t="s">
         <v>252</v>
       </c>
       <c r="D56" t="s">
@@ -5572,7 +4986,7 @@
       <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="52" t="s">
         <v>254</v>
       </c>
       <c r="C57" t="s">
@@ -5586,10 +5000,10 @@
       <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="50" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
@@ -5600,13 +5014,13 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="24" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5614,13 +5028,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="24" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5628,10 +5042,10 @@
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="59" t="s">
         <v>264</v>
       </c>
       <c r="D61" t="s">
@@ -5642,24 +5056,24 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="65" t="s">
+      <c r="D62" s="55" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="64"/>
+      <c r="D64" s="54"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -5668,7 +5082,7 @@
       <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="50" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
@@ -5693,13 +5107,13 @@
       <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="24" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5707,10 +5121,10 @@
       <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="59" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
@@ -5731,12 +5145,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="56" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="49" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>276</v>
       </c>
@@ -5747,18 +5161,18 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="59" t="s">
         <v>279</v>
       </c>
       <c r="C75" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -5769,7 +5183,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -5780,7 +5194,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -5793,84 +5207,82 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="vikram.xyug@gmail.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="pavanikaka2@gmail.com" tooltip="mailto:pavanikaka2@gmail.com"/>
-    <hyperlink ref="B42" r:id="rId3" display="123@gmail.com"/>
-    <hyperlink ref="C42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="D42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="E42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="G42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="C58" r:id="rId5" display="Hyd@#"/>
-    <hyperlink ref="H42" r:id="rId6" display="148@#$"/>
-    <hyperlink ref="I42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId7" display="King@34"/>
-    <hyperlink ref="B16" r:id="rId8" display="Hyderabad@$12"/>
-    <hyperlink ref="E26" r:id="rId9" display="ASdfdwetr@!#$%321"/>
-    <hyperlink ref="E28" r:id="rId10" display="A1@k12"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" tooltip="mailto:pavanikaka2@gmail.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B42" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C42" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D42" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E42" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G42" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C58" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H42" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="I42" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="E26" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="52" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" style="52" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="52"/>
+    <col min="1" max="1" width="13.109375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="47" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="1" spans="1:12">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:12" s="46" customFormat="1">
+      <c r="A1" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="54" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="48" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="63" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="64" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="64" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5879,1783 +5291,1777 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="32" customWidth="1"/>
-    <col min="2" max="2" width="25.1111111111111" style="32" customWidth="1"/>
-    <col min="3" max="3" width="23.2222222222222" style="32" customWidth="1"/>
-    <col min="4" max="4" width="22.1111111111111" style="32" customWidth="1"/>
-    <col min="5" max="5" width="14" style="32" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" style="32" customWidth="1"/>
-    <col min="7" max="7" width="22.2222222222222" style="32" customWidth="1"/>
-    <col min="8" max="8" width="17.8888888888889" style="32" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="32"/>
-    <col min="10" max="10" width="19.5555555555556" style="32" customWidth="1"/>
-    <col min="11" max="11" width="24.7777777777778" style="32" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="32"/>
+    <col min="1" max="1" width="23.44140625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14" style="27" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="27"/>
+    <col min="10" max="10" width="19.5546875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="27" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" spans="1:1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:3" s="32" customFormat="1">
+      <c r="A1" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="1" spans="1:1">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:3" s="33" customFormat="1">
+      <c r="A2" s="33" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="35" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" s="38" customFormat="1" spans="1:1">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:3" s="33" customFormat="1">
+      <c r="A6" s="33" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="36" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" s="31" customFormat="1" spans="1:1">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:3" s="26" customFormat="1">
+      <c r="A9" s="26" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" s="38" customFormat="1" spans="1:1">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:3" s="33" customFormat="1">
+      <c r="A12" s="33" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" s="31" customFormat="1" spans="1:1">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:3" s="26" customFormat="1">
+      <c r="A15" s="26" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" s="31" customFormat="1" spans="1:1">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:11" s="26" customFormat="1">
+      <c r="A19" s="26" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="32" t="s">
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="27" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" s="38" customFormat="1" spans="1:1">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:11" s="33" customFormat="1">
+      <c r="A23" s="33" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" s="31" customFormat="1" spans="1:10">
-      <c r="A26" s="31" t="s">
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" s="26" customFormat="1">
+      <c r="A26" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="26" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:11" ht="27.6">
+      <c r="A27" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="27" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="27" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="27" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="1:11">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:11" ht="14.4">
+      <c r="A30" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="27" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="67" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="80" t="s">
+      <c r="K31" s="67" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="27" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="80" t="s">
+      <c r="K34" s="67" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="35" ht="14.4" spans="1:11">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:11" ht="14.4">
+      <c r="A35" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="80" t="s">
+      <c r="K35" s="67" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="80" t="s">
+      <c r="H36" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="80" t="s">
+      <c r="K36" s="67" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="80" t="s">
+      <c r="H37" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" s="31" customFormat="1" spans="1:1">
-      <c r="A39" s="45" t="s">
+    <row r="39" spans="1:11" s="26" customFormat="1">
+      <c r="A39" s="40" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="32" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="41" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="67" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="32" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="67" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="35"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="35"/>
-    </row>
-    <row r="45" s="31" customFormat="1" spans="1:1">
-      <c r="A45" s="47" t="s">
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="1:11" s="26" customFormat="1">
+      <c r="A45" s="42" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="32" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="27" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="32" t="s">
+    <row r="47" spans="1:11">
+      <c r="C47" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="27" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" s="38" customFormat="1" spans="1:1">
-      <c r="A48" s="48" t="s">
+    <row r="48" spans="1:11" s="33" customFormat="1">
+      <c r="A48" s="43" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="32" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="68" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="32" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="67" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="32" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="69" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="35"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="32" t="s">
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="67" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" s="38" customFormat="1" spans="1:1">
-      <c r="A55" s="38" t="s">
+    <row r="55" spans="1:5" s="33" customFormat="1">
+      <c r="A55" s="33" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="35"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="32" t="s">
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="70" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" s="30" customFormat="1" spans="1:1">
-      <c r="A61" s="30" t="s">
+    <row r="61" spans="1:5" s="25" customFormat="1">
+      <c r="A61" s="25" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" s="31" customFormat="1" spans="1:2">
-      <c r="A62" s="31" t="s">
+    <row r="62" spans="1:5" s="26" customFormat="1">
+      <c r="A62" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="26" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="27" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="80" t="s">
+      <c r="B64" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="35"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="32" t="s">
+      <c r="E64" s="30"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="67" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="67" s="33" customFormat="1" spans="1:5">
-      <c r="A67" s="33" t="s">
+    <row r="67" spans="1:5" s="28" customFormat="1">
+      <c r="A67" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="49"/>
+      <c r="E67" s="44"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="68" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="35"/>
+      <c r="E68" s="30"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="35"/>
+      <c r="E69" s="30"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="80" t="s">
+      <c r="B70" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="E70" s="35"/>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="35"/>
-    </row>
-    <row r="72" s="31" customFormat="1" spans="1:5">
-      <c r="A72" s="31" t="s">
+      <c r="E70" s="30"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="E71" s="30"/>
+    </row>
+    <row r="72" spans="1:5" s="26" customFormat="1">
+      <c r="A72" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="47"/>
+      <c r="E72" s="42"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="27" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="80" t="s">
+      <c r="B74" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="67" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="35"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="35"/>
-    </row>
-    <row r="77" s="33" customFormat="1" spans="1:5">
-      <c r="A77" s="33" t="s">
+      <c r="D75" s="29"/>
+      <c r="E75" s="30"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="1:5" s="28" customFormat="1">
+      <c r="A77" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="49"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="32" t="s">
+      <c r="E77" s="44"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="81" t="s">
+      <c r="B79" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="35"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="80" t="s">
+      <c r="B80" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="35"/>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="35"/>
-    </row>
-    <row r="82" s="31" customFormat="1" spans="1:1">
-      <c r="A82" s="31" t="s">
+      <c r="E80" s="30"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="E81" s="30"/>
+    </row>
+    <row r="82" spans="1:5" s="26" customFormat="1">
+      <c r="A82" s="26" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="27" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="32" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="68" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="67" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="32" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="80" t="s">
+      <c r="B85" s="67" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="35"/>
-    </row>
-    <row r="87" s="33" customFormat="1" spans="1:5">
-      <c r="A87" s="33" t="s">
+    <row r="86" spans="1:5">
+      <c r="E86" s="30"/>
+    </row>
+    <row r="87" spans="1:5" s="28" customFormat="1">
+      <c r="A87" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="49"/>
+      <c r="E87" s="44"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="81" t="s">
+      <c r="B88" s="68" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="35"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="30"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="35"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="32" t="s">
+      <c r="D89" s="29"/>
+      <c r="E89" s="30"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="80" t="s">
+      <c r="B90" s="67" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" s="30" customFormat="1" spans="1:1">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:5" s="25" customFormat="1">
+      <c r="A93" s="25" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" s="31" customFormat="1" spans="1:1">
-      <c r="A94" s="31" t="s">
+    <row r="94" spans="1:5" s="26" customFormat="1">
+      <c r="A94" s="26" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="95" s="36" customFormat="1" spans="1:1">
-      <c r="A95" s="36" t="s">
+    <row r="95" spans="1:5" s="31" customFormat="1">
+      <c r="A95" s="31" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="80" t="s">
+      <c r="B96" s="67" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="35"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="32" t="s">
+      <c r="E96" s="30"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="80" t="s">
+      <c r="B97" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="80" t="s">
+      <c r="C97" s="67" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="32" t="s">
+    <row r="98" spans="1:13">
+      <c r="A98" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="80" t="s">
+      <c r="B98" s="67" t="s">
         <v>420</v>
       </c>
-      <c r="C98" s="81" t="s">
+      <c r="C98" s="68" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="99" ht="27.6" spans="1:3">
-      <c r="A99" s="32" t="s">
+    <row r="99" spans="1:13" ht="27.6">
+      <c r="A99" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="80" t="s">
+      <c r="B99" s="67" t="s">
         <v>418</v>
       </c>
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="32" t="s">
+    <row r="100" spans="1:13">
+      <c r="A100" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="50" t="s">
+      <c r="E100" s="45" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="35"/>
-    </row>
-    <row r="102" s="36" customFormat="1" spans="1:1">
-      <c r="A102" s="36" t="s">
+    <row r="101" spans="1:13">
+      <c r="E101" s="30"/>
+    </row>
+    <row r="102" spans="1:13" s="31" customFormat="1">
+      <c r="A102" s="31" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="32" t="s">
+    <row r="103" spans="1:13">
+      <c r="A103" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="80" t="s">
+      <c r="B103" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="35"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="32" t="s">
+      <c r="E103" s="30"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B104" s="80" t="s">
+      <c r="B104" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="35"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="32" t="s">
+      <c r="D104" s="29"/>
+      <c r="E104" s="30"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="68" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="106" ht="27.6" spans="1:11">
-      <c r="A106" s="32" t="s">
+    <row r="106" spans="1:13" ht="27.6">
+      <c r="A106" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="80" t="s">
+      <c r="B106" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="35"/>
-      <c r="I106" s="50"/>
-      <c r="K106" s="35"/>
+      <c r="E106" s="30"/>
+      <c r="I106" s="45"/>
+      <c r="K106" s="30"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="M107" s="35"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="32" t="s">
+      <c r="M107" s="30"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="50" t="s">
+      <c r="B108" s="45" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="110" s="31" customFormat="1" spans="1:1">
-      <c r="A110" s="31" t="s">
+    <row r="110" spans="1:13" s="26" customFormat="1">
+      <c r="A110" s="26" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="111" s="36" customFormat="1" spans="1:1">
-      <c r="A111" s="36" t="s">
+    <row r="111" spans="1:13" s="31" customFormat="1">
+      <c r="A111" s="31" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="32" t="s">
+    <row r="112" spans="1:13">
+      <c r="A112" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="80" t="s">
+      <c r="B112" s="67" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="35"/>
+      <c r="E112" s="30"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="80" t="s">
+      <c r="B113" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="C113" s="80" t="s">
+      <c r="C113" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="E113" s="35"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="32" t="s">
+      <c r="E113" s="30"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="80" t="s">
+      <c r="B114" s="67" t="s">
         <v>433</v>
       </c>
-      <c r="C114" s="80" t="s">
+      <c r="C114" s="67" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="115" ht="27.6" spans="1:2">
-      <c r="A115" s="32" t="s">
+    <row r="115" spans="1:5" ht="27.6">
+      <c r="A115" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="80" t="s">
+      <c r="B115" s="67" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="32" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B116" s="80" t="s">
+      <c r="B116" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="C116" s="80" t="s">
+      <c r="C116" s="67" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="32" t="s">
+      <c r="A117" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="D117" s="32" t="s">
+      <c r="D117" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="E117" s="32" t="s">
+      <c r="E117" s="27" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" s="36" customFormat="1" spans="1:1">
-      <c r="A119" s="36" t="s">
+    <row r="119" spans="1:5" s="31" customFormat="1">
+      <c r="A119" s="31" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="80" t="s">
+      <c r="B120" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="35"/>
+      <c r="E120" s="30"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B121" s="80" t="s">
+      <c r="B121" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="E121" s="35"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="32" t="s">
+      <c r="E121" s="30"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B122" s="80" t="s">
+      <c r="B122" s="67" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="123" ht="27.6" spans="1:2">
-      <c r="A123" s="32" t="s">
+    <row r="123" spans="1:5" ht="27.6">
+      <c r="A123" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B123" s="80" t="s">
+      <c r="B123" s="67" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="32" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="80" t="s">
+      <c r="B124" s="67" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="32" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B125" s="27" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="32" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="45" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="129" s="30" customFormat="1" spans="1:1">
-      <c r="A129" s="30" t="s">
+    <row r="129" spans="1:5" s="25" customFormat="1">
+      <c r="A129" s="25" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="130" s="31" customFormat="1" spans="1:1">
-      <c r="A130" s="31" t="s">
+    <row r="130" spans="1:5" s="26" customFormat="1">
+      <c r="A130" s="26" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="131" s="39" customFormat="1" spans="1:2">
-      <c r="A131" s="39" t="s">
+    <row r="131" spans="1:5" s="34" customFormat="1">
+      <c r="A131" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="34" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="32" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="B132" s="27" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="32" t="s">
+      <c r="A133" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="80" t="s">
+      <c r="B133" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="35"/>
+      <c r="E133" s="30"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="50" t="s">
+      <c r="B134" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="E134" s="35"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="32" t="s">
+      <c r="E134" s="30"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="32" t="s">
+      <c r="B135" s="27" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="32" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B136" s="80" t="s">
+      <c r="B136" s="67" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="goldbox@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="goldbox@2023"/>
-    <hyperlink ref="C4" r:id="rId2" display="goldbox@2023"/>
-    <hyperlink ref="C3" r:id="rId3" display="soumya@gmail.com"/>
-    <hyperlink ref="H30" r:id="rId4" display="White@#$%^&amp;"/>
-    <hyperlink ref="H35" r:id="rId5" display="Black@#$%^&amp;*("/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="H30" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="H35" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="28.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="68" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="68" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="68" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="68" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="68" t="s">
         <v>447</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="68" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="68" t="s">
         <v>447</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="67" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="67" t="s">
         <v>450</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="68" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" ht="27.6" spans="1:4">
-      <c r="A39" s="32" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:4" ht="27.6">
+      <c r="A39" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="67" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" ht="27.6" spans="1:4">
-      <c r="A46" s="32" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="27.6">
+      <c r="A46" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-    </row>
-    <row r="54" ht="27.6" spans="1:4">
-      <c r="A54" s="32" t="s">
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+    </row>
+    <row r="54" spans="1:4" ht="27.6">
+      <c r="A54" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B60" s="80" t="s">
+      <c r="B60" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-    </row>
-    <row r="62" ht="27.6" spans="1:4">
-      <c r="A62" s="32" t="s">
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="1:4" ht="27.6">
+      <c r="A62" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B62" s="80" t="s">
+      <c r="B62" s="67" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="67" t="s">
         <v>457</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="120.888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="120.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7663,216 +7069,212 @@
       <c r="A2" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>462</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="10"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:2">
-      <c r="A10" s="19" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1">
+      <c r="A10" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="21"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="71" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="72" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="72" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="23"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>484</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" t="s">
         <v>485</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test-proj\Gold-Box_Upto-Sprint_6\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707A438-7A0E-447D-AD12-63CDAB2E5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15180" windowHeight="3210" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -26,11 +20,25 @@
     <sheet name="GoldBharat" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:B2"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="546">
   <si>
     <t>Schemes</t>
   </si>
@@ -1024,6 +1032,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>AcNo2</t>
     </r>
@@ -1875,6 +1884,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>AddCategory</t>
     </r>
@@ -1883,6 +1893,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2120,13 +2131,22 @@
   </si>
   <si>
     <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>RegistrationPage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,22 +2180,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A3E3E"/>
-      <name val="Consolas"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2223,6 +2234,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2236,6 +2248,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2263,6 +2276,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2295,8 +2309,144 @@
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2305,7 +2455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,13 +2527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,8 +2561,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2420,152 +2756,432 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2823,32 +3439,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD46"/>
+      <selection activeCell="A29" sqref="$A29:$XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.3363636363636" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.3363636363636" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.6636363636364" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1">
+    <row r="1" s="3" customFormat="1" spans="7:7">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2857,25 +3473,25 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="57" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="57" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2883,25 +3499,25 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="57" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2909,25 +3525,25 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="57" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="57" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2935,25 +3551,25 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="57" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="57" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="57" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2961,25 +3577,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="57" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="57" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2987,25 +3603,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="57" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="57" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="57" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3013,25 +3629,25 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="57" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3039,25 +3655,25 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="57" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="57" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="57" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3065,25 +3681,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="57" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="57" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3091,25 +3707,25 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="57" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="57" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="57" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3117,25 +3733,25 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="57" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="57" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3143,29 +3759,29 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="57" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="57" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="10:10">
       <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
@@ -3174,31 +3790,31 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="57" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="57" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="57" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="57" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="57" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3206,31 +3822,31 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="57" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="57" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="57" t="s">
         <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="59" t="s">
+      <c r="M18" s="57" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3238,31 +3854,31 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="57" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="57" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="57" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="59" t="s">
+      <c r="M19" s="57" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3270,45 +3886,45 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="57" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="57" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="57" t="s">
         <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="59" t="s">
+      <c r="M20" s="57" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="10:13">
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="57" t="s">
         <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="59" t="s">
+      <c r="M21" s="57" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3316,31 +3932,31 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="57" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="57" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="57" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3348,31 +3964,31 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="57" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="57" t="s">
         <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="57" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3380,31 +3996,31 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="57" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="57" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="57" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3412,57 +4028,57 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="57" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="57" t="s">
         <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="57" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="57" customFormat="1">
-      <c r="A29" s="57" t="s">
+    <row r="29" s="55" customFormat="1" spans="1:1">
+      <c r="A29" s="55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="58" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="58" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="58" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="56" t="s">
         <v>48</v>
       </c>
       <c r="B32" t="s">
@@ -3470,7 +4086,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="56" t="s">
         <v>50</v>
       </c>
       <c r="B33" t="s">
@@ -3478,7 +4094,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B34" t="s">
@@ -3486,7 +4102,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="56" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
@@ -3494,7 +4110,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="56" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
@@ -3502,7 +4118,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B37" t="s">
@@ -3510,7 +4126,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="56" t="s">
         <v>57</v>
       </c>
       <c r="B38" t="s">
@@ -3518,7 +4134,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="56" t="s">
         <v>59</v>
       </c>
       <c r="B39" t="s">
@@ -3526,7 +4142,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="56" t="s">
         <v>61</v>
       </c>
       <c r="B40" t="s">
@@ -3534,7 +4150,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
@@ -3542,7 +4158,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="56" t="s">
         <v>65</v>
       </c>
       <c r="B42" t="s">
@@ -3550,15 +4166,15 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="56" t="s">
         <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="57" customFormat="1">
-      <c r="A45" s="57" t="s">
+    <row r="45" s="55" customFormat="1" spans="1:1">
+      <c r="A45" s="55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3573,28 +4189,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="36.4454545454545" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.8909090909091" customWidth="1"/>
+    <col min="6" max="6" width="11.1090909090909"/>
+    <col min="7" max="7" width="11.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>486</v>
       </c>
@@ -3603,19 +4221,19 @@
       <c r="A2" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>294</v>
       </c>
       <c r="C2" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>487</v>
       </c>
       <c r="E2" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="70" t="s">
         <v>488</v>
       </c>
     </row>
@@ -3635,7 +4253,7 @@
       <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="70" t="s">
         <v>493</v>
       </c>
     </row>
@@ -3643,36 +4261,36 @@
       <c r="A4" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>495</v>
       </c>
       <c r="C4" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>495</v>
       </c>
       <c r="E4" t="s">
         <v>477</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="70" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="5:6">
       <c r="E5" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="70" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>374</v>
       </c>
@@ -3683,12 +4301,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    <row r="9" s="2" customFormat="1" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -3696,7 +4314,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>503</v>
       </c>
@@ -3704,7 +4322,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>505</v>
       </c>
@@ -3712,12 +4330,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
+    <row r="14" s="2" customFormat="1" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -3725,7 +4343,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>503</v>
       </c>
@@ -3733,7 +4351,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>505</v>
       </c>
@@ -3741,7 +4359,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1">
+    <row r="19" s="3" customFormat="1" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>483</v>
       </c>
@@ -3757,65 +4375,65 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1">
+    <row r="21" s="2" customFormat="1" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>513</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>515</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="57" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="57" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>524</v>
       </c>
@@ -3823,7 +4441,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>526</v>
       </c>
@@ -3831,7 +4449,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="2" customFormat="1">
+    <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>528</v>
       </c>
@@ -3842,35 +4460,35 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>531</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="57" t="s">
         <v>532</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>533</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="57" t="s">
         <v>532</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>534</v>
       </c>
@@ -3878,7 +4496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="6:7">
       <c r="F36" t="s">
         <v>535</v>
       </c>
@@ -3886,28 +4504,28 @@
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="2" customFormat="1">
+    <row r="37" s="2" customFormat="1" spans="1:1">
       <c r="A37" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="57" t="s">
         <v>538</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="57" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1">
+    <row r="40" s="2" customFormat="1" spans="1:1">
       <c r="A40" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>374</v>
       </c>
@@ -3920,24 +4538,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F4E642-8356-48B6-9773-31E5712953C5}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="21.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -3946,361 +4566,372 @@
       <c r="A2" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="1" max="1" width="55.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="54" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="54" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="54" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="54" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="54" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="54" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="54" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="54" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="54" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="54" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="54" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="54" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="54" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="54" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="54" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="54" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="54" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="54" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="54" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="54" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="54" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="54" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="54" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="54" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="54" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="54" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="54" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="54" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="54" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="54" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="54" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="54" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="54" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="54" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.7818181818182" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="3" max="5" width="22.4454545454545" customWidth="1"/>
+    <col min="6" max="6" width="15.1090909090909" customWidth="1"/>
+    <col min="7" max="7" width="23.5545454545455" customWidth="1"/>
+    <col min="8" max="8" width="20.4454545454545" customWidth="1"/>
+    <col min="9" max="9" width="22.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -4311,36 +4942,36 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="57" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4376,13 +5007,13 @@
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4404,55 +5035,55 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="57" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="47" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="57" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="48" t="s">
         <v>161</v>
       </c>
       <c r="G16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -4463,7 +5094,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -4474,7 +5105,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -4485,18 +5116,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="57" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -4508,28 +5139,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="47" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4563,10 +5194,10 @@
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="57" t="s">
         <v>185</v>
       </c>
       <c r="D25" t="s">
@@ -4575,10 +5206,10 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="57" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
@@ -4598,7 +5229,7 @@
       <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="48" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
@@ -4641,43 +5272,43 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="47" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -4687,7 +5318,7 @@
       <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="G31" t="s">
         <v>200</v>
       </c>
@@ -4695,27 +5326,27 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="57" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -4732,7 +5363,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -4749,7 +5380,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -4766,12 +5397,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="53" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="51" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -4794,19 +5425,19 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="47" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="49"/>
+    <row r="40" spans="1:1">
+      <c r="A40" s="47"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="57" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
@@ -4815,7 +5446,7 @@
       <c r="D41">
         <v>12345</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="57" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
@@ -4832,25 +5463,25 @@
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="51" t="s">
+      <c r="I42" s="49" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4858,34 +5489,34 @@
       <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="62" t="s">
+      <c r="F43" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="62" t="s">
+      <c r="G43" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="62" t="s">
+      <c r="H43" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="59" t="s">
+      <c r="I43" s="57" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="49" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="47" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -4896,44 +5527,44 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="57" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="57" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="57" t="s">
         <v>245</v>
       </c>
       <c r="C51" t="s">
@@ -4941,18 +5572,18 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="47" t="s">
         <v>248</v>
       </c>
       <c r="D53" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="D54" s="54"/>
+    <row r="54" spans="4:4">
+      <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -4972,10 +5603,10 @@
       <c r="A56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="57" t="s">
         <v>252</v>
       </c>
       <c r="D56" t="s">
@@ -4986,7 +5617,7 @@
       <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="50" t="s">
         <v>254</v>
       </c>
       <c r="C57" t="s">
@@ -5000,10 +5631,10 @@
       <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="48" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
@@ -5014,13 +5645,13 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="20" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5028,13 +5659,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="20" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5042,10 +5673,10 @@
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="57" t="s">
         <v>264</v>
       </c>
       <c r="D61" t="s">
@@ -5056,24 +5687,24 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="53" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="54"/>
+      <c r="D64" s="52"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -5082,7 +5713,7 @@
       <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="48" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
@@ -5107,13 +5738,13 @@
       <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="20" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5121,10 +5752,10 @@
       <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="57" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
@@ -5145,12 +5776,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="49" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="47" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>276</v>
       </c>
@@ -5161,18 +5792,18 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="57" t="s">
         <v>279</v>
       </c>
       <c r="C75" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -5183,7 +5814,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -5194,7 +5825,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -5207,82 +5838,84 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" tooltip="mailto:pavanikaka2@gmail.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B42" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C42" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D42" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="E42" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="G42" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C58" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="H42" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="I42" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="E26" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="vikram.xyug@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="pavanikaka2@gmail.com" tooltip="mailto:pavanikaka2@gmail.com"/>
+    <hyperlink ref="B42" r:id="rId3" display="123@gmail.com"/>
+    <hyperlink ref="C42" r:id="rId4" display="pavanikaka@gmail.com"/>
+    <hyperlink ref="D42" r:id="rId4" display="pavanikaka@gmail.com"/>
+    <hyperlink ref="E42" r:id="rId4" display="pavanikaka@gmail.com"/>
+    <hyperlink ref="G42" r:id="rId4" display="pavanikaka@gmail.com"/>
+    <hyperlink ref="C58" r:id="rId5" display="Hyd@#"/>
+    <hyperlink ref="H42" r:id="rId6" display="148@#$"/>
+    <hyperlink ref="I42" r:id="rId4" display="pavanikaka@gmail.com"/>
+    <hyperlink ref="B14" r:id="rId7" display="King@34"/>
+    <hyperlink ref="B16" r:id="rId8" display="Hyderabad@$12"/>
+    <hyperlink ref="E26" r:id="rId9" display="ASdfdwetr@!#$%321"/>
+    <hyperlink ref="E28" r:id="rId10" display="A1@k12"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="47" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="47"/>
+    <col min="1" max="1" width="13.1090909090909" style="43" customWidth="1"/>
+    <col min="2" max="2" width="13.5545454545455" style="43" customWidth="1"/>
+    <col min="3" max="16384" width="8.89090909090909" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="46" customFormat="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" s="42" customFormat="1" spans="1:12">
+      <c r="A1" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="45" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="62" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5291,1777 +5924,1783 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="27"/>
-    <col min="10" max="10" width="19.5546875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="24.77734375" style="27" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="23.4454545454545" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25.1090909090909" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.2181818181818" style="23" customWidth="1"/>
+    <col min="4" max="4" width="22.1090909090909" style="23" customWidth="1"/>
+    <col min="5" max="5" width="14" style="23" customWidth="1"/>
+    <col min="6" max="6" width="14.4454545454545" style="23" customWidth="1"/>
+    <col min="7" max="7" width="22.2181818181818" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.8909090909091" style="23" customWidth="1"/>
+    <col min="9" max="9" width="8.89090909090909" style="23"/>
+    <col min="10" max="10" width="19.5545454545455" style="23" customWidth="1"/>
+    <col min="11" max="11" width="24.7818181818182" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="8.89090909090909" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="28" customFormat="1" spans="1:1">
+      <c r="A1" s="28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="33" customFormat="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" s="29" customFormat="1" spans="1:1">
+      <c r="A2" s="29" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="33" customFormat="1">
-      <c r="A6" s="33" t="s">
+    <row r="6" s="29" customFormat="1" spans="1:1">
+      <c r="A6" s="29" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="26" customFormat="1">
-      <c r="A9" s="26" t="s">
+    <row r="9" s="22" customFormat="1" spans="1:1">
+      <c r="A9" s="22" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="33" customFormat="1">
-      <c r="A12" s="33" t="s">
+    <row r="12" s="29" customFormat="1" spans="1:1">
+      <c r="A12" s="29" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="26" customFormat="1">
-      <c r="A15" s="26" t="s">
+    <row r="15" s="22" customFormat="1" spans="1:1">
+      <c r="A15" s="22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="26" customFormat="1">
-      <c r="A19" s="26" t="s">
+    <row r="19" s="22" customFormat="1" spans="1:1">
+      <c r="A19" s="22" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="27" t="s">
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1">
-      <c r="A23" s="33" t="s">
+    <row r="23" s="29" customFormat="1" spans="1:1">
+      <c r="A23" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" s="26" customFormat="1">
-      <c r="A26" s="26" t="s">
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" s="22" customFormat="1" spans="1:10">
+      <c r="A26" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27.6">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="23" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4">
-      <c r="A30" s="27" t="s">
+    <row r="30" ht="14.5" spans="1:11">
+      <c r="A30" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="23" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="67" t="s">
+      <c r="K31" s="65" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="H32" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="23" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="23" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="67" t="s">
+      <c r="K34" s="65" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.4">
-      <c r="A35" s="27" t="s">
+    <row r="35" ht="14.5" spans="1:11">
+      <c r="A35" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="27" t="s">
+      <c r="J35" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="67" t="s">
+      <c r="K35" s="65" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="67" t="s">
+      <c r="K36" s="65" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="H37" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="J37" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="K37" s="23" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="26" customFormat="1">
-      <c r="A39" s="40" t="s">
+    <row r="39" s="22" customFormat="1" spans="1:1">
+      <c r="A39" s="36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="23" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="37" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="65" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="30"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="E44" s="30"/>
-    </row>
-    <row r="45" spans="1:11" s="26" customFormat="1">
-      <c r="A45" s="42" t="s">
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" s="22" customFormat="1" spans="1:1">
+      <c r="A45" s="38" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="C47" s="27" t="s">
+    <row r="47" spans="3:4">
+      <c r="C47" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="33" customFormat="1">
-      <c r="A48" s="43" t="s">
+    <row r="48" s="29" customFormat="1" spans="1:1">
+      <c r="A48" s="39" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="66" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="65" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="27" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="67" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="30"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="27" t="s">
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="65" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="33" customFormat="1">
-      <c r="A55" s="33" t="s">
+    <row r="55" s="29" customFormat="1" spans="1:1">
+      <c r="A55" s="29" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="30"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="27" t="s">
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="68" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="25" customFormat="1">
-      <c r="A61" s="25" t="s">
+    <row r="61" s="21" customFormat="1" spans="1:1">
+      <c r="A61" s="21" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="26" customFormat="1">
-      <c r="A62" s="26" t="s">
+    <row r="62" s="22" customFormat="1" spans="1:2">
+      <c r="A62" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="22" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="23" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="30"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="27" t="s">
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="28" customFormat="1">
-      <c r="A67" s="28" t="s">
+    <row r="67" s="24" customFormat="1" spans="1:5">
+      <c r="A67" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="44"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="30"/>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="30"/>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="E70" s="30"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="E71" s="30"/>
-    </row>
-    <row r="72" spans="1:5" s="26" customFormat="1">
-      <c r="A72" s="26" t="s">
+      <c r="E70" s="26"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" s="22" customFormat="1" spans="1:5">
+      <c r="A72" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="42"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="23" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="29"/>
-      <c r="E74" s="30"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="30"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="E76" s="30"/>
-    </row>
-    <row r="77" spans="1:5" s="28" customFormat="1">
-      <c r="A77" s="28" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77" s="24" customFormat="1" spans="1:5">
+      <c r="A77" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="44"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="27" t="s">
+      <c r="E77" s="40"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="68" t="s">
+      <c r="B78" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="29"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="30"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="67" t="s">
+      <c r="B80" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="30"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="E81" s="30"/>
-    </row>
-    <row r="82" spans="1:5" s="26" customFormat="1">
-      <c r="A82" s="26" t="s">
+      <c r="E80" s="26"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="26"/>
+    </row>
+    <row r="82" s="22" customFormat="1" spans="1:1">
+      <c r="A82" s="22" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="68" t="s">
+      <c r="B83" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="67" t="s">
+      <c r="C83" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="E83" s="23" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="27" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="67" t="s">
+      <c r="C84" s="65" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="27" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="E86" s="30"/>
-    </row>
-    <row r="87" spans="1:5" s="28" customFormat="1">
-      <c r="A87" s="28" t="s">
+    <row r="86" spans="5:5">
+      <c r="E86" s="26"/>
+    </row>
+    <row r="87" s="24" customFormat="1" spans="1:5">
+      <c r="A87" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="44"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="68" t="s">
+      <c r="B88" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="30"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="30"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="27" t="s">
+      <c r="D89" s="25"/>
+      <c r="E89" s="26"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="25" customFormat="1">
-      <c r="A93" s="25" t="s">
+    <row r="93" s="21" customFormat="1" spans="1:1">
+      <c r="A93" s="21" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="26" customFormat="1">
-      <c r="A94" s="26" t="s">
+    <row r="94" s="22" customFormat="1" spans="1:1">
+      <c r="A94" s="22" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="31" customFormat="1">
-      <c r="A95" s="31" t="s">
+    <row r="95" s="27" customFormat="1" spans="1:1">
+      <c r="A95" s="27" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="67" t="s">
+      <c r="B96" s="65" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="30"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="27" t="s">
+      <c r="E96" s="26"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="65" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="27" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="C98" s="68" t="s">
+      <c r="C98" s="66" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="27.6">
-      <c r="A99" s="27" t="s">
+    <row r="99" ht="26" spans="1:3">
+      <c r="A99" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="67" t="s">
+      <c r="B99" s="65" t="s">
         <v>418</v>
       </c>
-      <c r="C99" s="67" t="s">
+      <c r="C99" s="65" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="27" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D100" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="45" t="s">
+      <c r="E100" s="41" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
-      <c r="E101" s="30"/>
-    </row>
-    <row r="102" spans="1:13" s="31" customFormat="1">
-      <c r="A102" s="31" t="s">
+    <row r="101" spans="5:5">
+      <c r="E101" s="26"/>
+    </row>
+    <row r="102" s="27" customFormat="1" spans="1:1">
+      <c r="A102" s="27" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="27" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="67" t="s">
+      <c r="B103" s="65" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="30"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="27" t="s">
+      <c r="E103" s="26"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B104" s="67" t="s">
+      <c r="B104" s="65" t="s">
         <v>426</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="30"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="27" t="s">
+      <c r="D104" s="25"/>
+      <c r="E104" s="26"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="66" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="27.6">
-      <c r="A106" s="27" t="s">
+    <row r="106" ht="26" spans="1:11">
+      <c r="A106" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="67" t="s">
+      <c r="B106" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="30"/>
-      <c r="I106" s="45"/>
-      <c r="K106" s="30"/>
+      <c r="E106" s="26"/>
+      <c r="I106" s="41"/>
+      <c r="K106" s="26"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="M107" s="30"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="27" t="s">
+      <c r="M107" s="26"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="41" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="26" customFormat="1">
-      <c r="A110" s="26" t="s">
+    <row r="110" s="22" customFormat="1" spans="1:1">
+      <c r="A110" s="22" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="31" customFormat="1">
-      <c r="A111" s="31" t="s">
+    <row r="111" s="27" customFormat="1" spans="1:1">
+      <c r="A111" s="27" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="27" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="67" t="s">
+      <c r="B112" s="65" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="30"/>
+      <c r="E112" s="26"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="67" t="s">
+      <c r="B113" s="65" t="s">
         <v>432</v>
       </c>
-      <c r="C113" s="67" t="s">
+      <c r="C113" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="E113" s="30"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="27" t="s">
+      <c r="E113" s="26"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="67" t="s">
+      <c r="B114" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="C114" s="67" t="s">
+      <c r="C114" s="65" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="27.6">
-      <c r="A115" s="27" t="s">
+    <row r="115" ht="26" spans="1:2">
+      <c r="A115" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="65" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="27" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B116" s="67" t="s">
+      <c r="B116" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="C116" s="67" t="s">
+      <c r="C116" s="65" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D117" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="E117" s="27" t="s">
+      <c r="E117" s="23" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="31" customFormat="1">
-      <c r="A119" s="31" t="s">
+    <row r="119" s="27" customFormat="1" spans="1:1">
+      <c r="A119" s="27" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="67" t="s">
+      <c r="B120" s="65" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="30"/>
+      <c r="E120" s="26"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="27" t="s">
+      <c r="A121" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B121" s="67" t="s">
+      <c r="B121" s="65" t="s">
         <v>426</v>
       </c>
-      <c r="E121" s="30"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="27" t="s">
+      <c r="E121" s="26"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B122" s="67" t="s">
+      <c r="B122" s="65" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="27.6">
-      <c r="A123" s="27" t="s">
+    <row r="123" ht="26" spans="1:2">
+      <c r="A123" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B123" s="67" t="s">
+      <c r="B123" s="65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="27" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="65" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="27" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="23" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="27" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="45" t="s">
+      <c r="B126" s="41" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="25" customFormat="1">
-      <c r="A129" s="25" t="s">
+    <row r="129" s="21" customFormat="1" spans="1:1">
+      <c r="A129" s="21" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="26" customFormat="1">
-      <c r="A130" s="26" t="s">
+    <row r="130" s="22" customFormat="1" spans="1:1">
+      <c r="A130" s="22" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="34" customFormat="1">
-      <c r="A131" s="34" t="s">
+    <row r="131" s="30" customFormat="1" spans="1:2">
+      <c r="A131" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="30" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="27" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="27" t="s">
+      <c r="B132" s="23" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="67" t="s">
+      <c r="B133" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="30"/>
+      <c r="E133" s="26"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="45" t="s">
+      <c r="B134" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="E134" s="30"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="27" t="s">
+      <c r="E134" s="26"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="27" t="s">
+      <c r="B135" s="23" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="27" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="B136" s="67" t="s">
+      <c r="B136" s="65" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="H30" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="H35" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="goldbox@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="goldbox@2023"/>
+    <hyperlink ref="C4" r:id="rId2" display="goldbox@2023"/>
+    <hyperlink ref="C3" r:id="rId3" display="soumya@gmail.com"/>
+    <hyperlink ref="H30" r:id="rId4" display="White@#$%^&amp;"/>
+    <hyperlink ref="H35" r:id="rId5" display="Black@#$%^&amp;*("/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="28.8909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="65" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="65" t="s">
         <v>450</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-    </row>
-    <row r="39" spans="1:4" ht="27.6">
-      <c r="A39" s="27" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" ht="26" spans="1:4">
+      <c r="A39" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="65" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-    </row>
-    <row r="46" spans="1:4" ht="27.6">
-      <c r="A46" s="27" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" ht="26" spans="1:4">
+      <c r="A46" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="65" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-    </row>
-    <row r="54" spans="1:4" ht="27.6">
-      <c r="A54" s="27" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" ht="26" spans="1:4">
+      <c r="A54" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="65" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B60" s="67" t="s">
+      <c r="B60" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-    </row>
-    <row r="62" spans="1:4" ht="27.6">
-      <c r="A62" s="27" t="s">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" ht="26" spans="1:4">
+      <c r="A62" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="65" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="120.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="120.890909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7069,46 +7708,48 @@
       <c r="A2" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>462</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="16.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7119,152 +7760,152 @@
       <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" s="6" customFormat="1">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:2">
+      <c r="A10" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="17"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="59" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="59" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
@@ -7276,5 +7917,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test-proj\Gold-Box_Upto-Sprint_6\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8617075E-7AC5-42E1-B0F8-F2AAD8ED7735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15180" windowHeight="3210" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -20,25 +26,11 @@
     <sheet name="GoldBharat" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:B2"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="553">
   <si>
     <t>Schemes</t>
   </si>
@@ -2135,23 +2127,45 @@
   <si>
     <t>RegistrationPage</t>
   </si>
+  <si>
+    <t>BusinessName</t>
+  </si>
+  <si>
+    <t>pavani.kaka@gmail.com</t>
+  </si>
+  <si>
+    <t>PersonName</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>11-05-2024</t>
+  </si>
+  <si>
+    <t>Business Address</t>
+  </si>
+  <si>
+    <t>H.NO:118, Cnr Quality, Alwal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2309,144 +2323,8 @@
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="51">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2455,7 +2333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,13 +2405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,194 +2439,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2756,432 +2448,146 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3439,32 +2845,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="$A29:$XFD46"/>
+      <selection activeCell="A29" sqref="A29:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.3363636363636" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="18.6636363636364" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="18.6636363636364" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="7:7">
+    <row r="1" spans="1:11" s="3" customFormat="1">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3473,25 +2879,25 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="53" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3499,25 +2905,25 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3525,25 +2931,25 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="53" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="53" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3551,25 +2957,25 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3577,25 +2983,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="53" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="53" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3603,25 +3009,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3629,25 +3035,25 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="53" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="53" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3655,25 +3061,25 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3681,25 +3087,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="53" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3707,25 +3113,25 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3733,25 +3139,25 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="53" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3759,29 +3165,29 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
+    <row r="16" spans="1:11">
       <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
@@ -3790,31 +3196,31 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="53" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="53" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="53" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="57" t="s">
+      <c r="M17" s="53" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3822,31 +3228,31 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="53" t="s">
         <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="57" t="s">
+      <c r="M18" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3854,31 +3260,31 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="53" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="53" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="53" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="57" t="s">
+      <c r="M19" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3886,45 +3292,45 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="53" t="s">
         <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="57" t="s">
+      <c r="M20" s="53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="10:13">
+    <row r="21" spans="1:13">
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="53" t="s">
         <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M21" s="53" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3932,31 +3338,31 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="53" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="57" t="s">
+      <c r="M22" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3964,31 +3370,31 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="53" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3996,31 +3402,31 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="57" t="s">
+      <c r="K24" s="53" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="57" t="s">
+      <c r="M24" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4028,57 +3434,57 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="53" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="57" t="s">
+      <c r="M25" s="53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" s="55" customFormat="1" spans="1:1">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:13" s="51" customFormat="1">
+      <c r="A29" s="51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="56" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="56" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" s="52" t="s">
         <v>48</v>
       </c>
       <c r="B32" t="s">
@@ -4086,7 +3492,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="52" t="s">
         <v>50</v>
       </c>
       <c r="B33" t="s">
@@ -4094,7 +3500,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="52" t="s">
         <v>51</v>
       </c>
       <c r="B34" t="s">
@@ -4102,7 +3508,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="52" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
@@ -4110,7 +3516,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="52" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
@@ -4118,7 +3524,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="52" t="s">
         <v>55</v>
       </c>
       <c r="B37" t="s">
@@ -4126,7 +3532,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B38" t="s">
@@ -4134,7 +3540,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="52" t="s">
         <v>59</v>
       </c>
       <c r="B39" t="s">
@@ -4142,7 +3548,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B40" t="s">
@@ -4150,7 +3556,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
@@ -4158,7 +3564,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="52" t="s">
         <v>65</v>
       </c>
       <c r="B42" t="s">
@@ -4166,15 +3572,15 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" s="55" customFormat="1" spans="1:1">
-      <c r="A45" s="55" t="s">
+    <row r="45" spans="1:2" s="51" customFormat="1">
+      <c r="A45" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4189,30 +3595,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="36.4454545454545" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.8909090909091" customWidth="1"/>
-    <col min="6" max="6" width="11.1090909090909"/>
-    <col min="7" max="7" width="11.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>486</v>
       </c>
@@ -4221,19 +3625,19 @@
       <c r="A2" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="53" t="s">
         <v>294</v>
       </c>
       <c r="C2" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="53" t="s">
         <v>487</v>
       </c>
       <c r="E2" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="66" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4253,7 +3657,7 @@
       <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="66" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4261,36 +3665,36 @@
       <c r="A4" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="53" t="s">
         <v>495</v>
       </c>
       <c r="C4" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="53" t="s">
         <v>495</v>
       </c>
       <c r="E4" t="s">
         <v>477</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="66" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="5:6">
+    <row r="5" spans="1:6">
       <c r="E5" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="66" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:1">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>374</v>
       </c>
@@ -4301,12 +3705,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:1">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -4314,7 +3718,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>503</v>
       </c>
@@ -4322,7 +3726,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>505</v>
       </c>
@@ -4330,12 +3734,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:1">
+    <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -4343,7 +3747,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>503</v>
       </c>
@@ -4351,7 +3755,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>505</v>
       </c>
@@ -4359,7 +3763,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:1">
+    <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>483</v>
       </c>
@@ -4375,65 +3779,65 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:1">
+    <row r="21" spans="1:3" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>513</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>515</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="53" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="53" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="53" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="53" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="53" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:3" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>524</v>
       </c>
@@ -4441,7 +3845,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>526</v>
       </c>
@@ -4449,7 +3853,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:3">
+    <row r="32" spans="1:3" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>528</v>
       </c>
@@ -4460,35 +3864,35 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>531</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="53" t="s">
         <v>532</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>533</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="53" t="s">
         <v>532</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="53" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>534</v>
       </c>
@@ -4496,7 +3900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="1:7">
       <c r="F36" t="s">
         <v>535</v>
       </c>
@@ -4504,28 +3908,28 @@
         <v>536</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:1">
+    <row r="37" spans="1:7" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="53" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:1">
+    <row r="40" spans="1:7" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>374</v>
       </c>
@@ -4538,26 +3942,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="21.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4566,372 +3968,417 @@
       <c r="A2" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="53" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>545</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>552</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{F8F0BD1E-C133-4200-838B-FA6010808FED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="50" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="50" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="50" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="50" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="50" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="50" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="50" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="50" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="50" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="50" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="50" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="50" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="50" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="50" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="50" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="50" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="50" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="50" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="50" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="50" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="50" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="50" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="50" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="50" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="50" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="50" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="50" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="50" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="50" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7818181818182" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="5" width="22.4454545454545" customWidth="1"/>
-    <col min="6" max="6" width="15.1090909090909" customWidth="1"/>
-    <col min="7" max="7" width="23.5545454545455" customWidth="1"/>
-    <col min="8" max="8" width="20.4454545454545" customWidth="1"/>
-    <col min="9" max="9" width="22.4454545454545" customWidth="1"/>
+    <col min="3" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -4942,36 +4389,36 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="45" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="53" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="43" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5007,13 +4454,13 @@
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="53" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5035,55 +4482,55 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="44" t="s">
         <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="53" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="44" t="s">
         <v>161</v>
       </c>
       <c r="G16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -5094,7 +4541,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -5105,7 +4552,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -5116,18 +4563,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="53" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -5139,28 +4586,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="43" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5194,10 +4641,10 @@
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="53" t="s">
         <v>185</v>
       </c>
       <c r="D25" t="s">
@@ -5206,10 +4653,10 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="53" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
@@ -5229,7 +4676,7 @@
       <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="44" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
@@ -5272,43 +4719,43 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="I28" s="53" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="47" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -5318,7 +4765,7 @@
       <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="8"/>
       <c r="G31" t="s">
         <v>200</v>
       </c>
@@ -5326,27 +4773,27 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H32" s="53" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -5363,7 +4810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -5380,7 +4827,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -5397,12 +4844,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="51" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="47" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -5425,19 +4872,19 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="43" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="47"/>
+    <row r="40" spans="1:9">
+      <c r="A40" s="43"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="53" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
@@ -5446,7 +4893,7 @@
       <c r="D41">
         <v>12345</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="53" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
@@ -5463,25 +4910,25 @@
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="49" t="s">
+      <c r="I42" s="45" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5489,34 +4936,34 @@
       <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="47" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="43" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -5527,44 +4974,44 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="53" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="53" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="53" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="53" t="s">
         <v>245</v>
       </c>
       <c r="C51" t="s">
@@ -5572,18 +5019,18 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="43" t="s">
         <v>248</v>
       </c>
       <c r="D53" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="52"/>
+    <row r="54" spans="1:4">
+      <c r="D54" s="48"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -5603,10 +5050,10 @@
       <c r="A56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="53" t="s">
         <v>252</v>
       </c>
       <c r="D56" t="s">
@@ -5617,7 +5064,7 @@
       <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="46" t="s">
         <v>254</v>
       </c>
       <c r="C57" t="s">
@@ -5631,10 +5078,10 @@
       <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="44" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
@@ -5645,13 +5092,13 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="18" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5659,13 +5106,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="18" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5673,10 +5120,10 @@
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="53" t="s">
         <v>264</v>
       </c>
       <c r="D61" t="s">
@@ -5687,24 +5134,24 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="49" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="52"/>
+      <c r="D64" s="48"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -5713,7 +5160,7 @@
       <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="44" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
@@ -5738,13 +5185,13 @@
       <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="18" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5752,10 +5199,10 @@
       <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="53" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
@@ -5776,12 +5223,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="47" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="43" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>276</v>
       </c>
@@ -5792,18 +5239,18 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="53" t="s">
         <v>279</v>
       </c>
       <c r="C75" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -5814,7 +5261,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -5825,7 +5272,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -5838,84 +5285,82 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="vikram.xyug@gmail.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="pavanikaka2@gmail.com" tooltip="mailto:pavanikaka2@gmail.com"/>
-    <hyperlink ref="B42" r:id="rId3" display="123@gmail.com"/>
-    <hyperlink ref="C42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="D42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="E42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="G42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="C58" r:id="rId5" display="Hyd@#"/>
-    <hyperlink ref="H42" r:id="rId6" display="148@#$"/>
-    <hyperlink ref="I42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId7" display="King@34"/>
-    <hyperlink ref="B16" r:id="rId8" display="Hyderabad@$12"/>
-    <hyperlink ref="E26" r:id="rId9" display="ASdfdwetr@!#$%321"/>
-    <hyperlink ref="E28" r:id="rId10" display="A1@k12"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" tooltip="mailto:pavanikaka2@gmail.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B42" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C42" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D42" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E42" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G42" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C58" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H42" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="I42" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="E26" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1090909090909" style="43" customWidth="1"/>
-    <col min="2" max="2" width="13.5545454545455" style="43" customWidth="1"/>
-    <col min="3" max="16384" width="8.89090909090909" style="43"/>
+    <col min="1" max="1" width="13.109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" spans="1:12">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:12" s="40" customFormat="1">
+      <c r="A1" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="42" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="58" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="58" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5924,1783 +5369,1777 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.4454545454545" style="23" customWidth="1"/>
-    <col min="2" max="2" width="25.1090909090909" style="23" customWidth="1"/>
-    <col min="3" max="3" width="23.2181818181818" style="23" customWidth="1"/>
-    <col min="4" max="4" width="22.1090909090909" style="23" customWidth="1"/>
-    <col min="5" max="5" width="14" style="23" customWidth="1"/>
-    <col min="6" max="6" width="14.4454545454545" style="23" customWidth="1"/>
-    <col min="7" max="7" width="22.2181818181818" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17.8909090909091" style="23" customWidth="1"/>
-    <col min="9" max="9" width="8.89090909090909" style="23"/>
-    <col min="10" max="10" width="19.5545454545455" style="23" customWidth="1"/>
-    <col min="11" max="11" width="24.7818181818182" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="8.89090909090909" style="23"/>
+    <col min="1" max="1" width="23.44140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="21"/>
+    <col min="10" max="10" width="19.5546875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" spans="1:1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="26" customFormat="1">
+      <c r="A1" s="26" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="29" customFormat="1" spans="1:1">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:3" s="27" customFormat="1">
+      <c r="A2" s="27" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" s="29" customFormat="1" spans="1:1">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:3" s="27" customFormat="1">
+      <c r="A6" s="27" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" s="22" customFormat="1" spans="1:1">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:3" s="20" customFormat="1">
+      <c r="A9" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" s="29" customFormat="1" spans="1:1">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:3" s="27" customFormat="1">
+      <c r="A12" s="27" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" s="22" customFormat="1" spans="1:1">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:3" s="20" customFormat="1">
+      <c r="A15" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="1" spans="1:1">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:11" s="20" customFormat="1">
+      <c r="A19" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="23" t="s">
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" s="29" customFormat="1" spans="1:1">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:11" s="27" customFormat="1">
+      <c r="A23" s="27" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="33"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" s="22" customFormat="1" spans="1:10">
-      <c r="A26" s="22" t="s">
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" s="20" customFormat="1">
+      <c r="A26" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:11" ht="27.6">
+      <c r="A27" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="21" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="21" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="21" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" ht="14.5" spans="1:11">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:11" ht="14.4">
+      <c r="A30" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="21" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="65" t="s">
+      <c r="H31" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="61" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="21" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="21" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="61" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="35" ht="14.5" spans="1:11">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:11" ht="14.4">
+      <c r="A35" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="61" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="61" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="65" t="s">
+      <c r="H37" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" s="22" customFormat="1" spans="1:1">
-      <c r="A39" s="36" t="s">
+    <row r="39" spans="1:11" s="20" customFormat="1">
+      <c r="A39" s="34" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="35" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="23" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="61" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="23" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" s="22" customFormat="1" spans="1:1">
-      <c r="A45" s="38" t="s">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" s="20" customFormat="1">
+      <c r="A45" s="36" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="23" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="21" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="23" t="s">
+    <row r="47" spans="1:11">
+      <c r="C47" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="21" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" s="29" customFormat="1" spans="1:1">
-      <c r="A48" s="39" t="s">
+    <row r="48" spans="1:11" s="27" customFormat="1">
+      <c r="A48" s="37" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="62" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="61" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="23" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="63" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="23" t="s">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="61" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" s="29" customFormat="1" spans="1:1">
-      <c r="A55" s="29" t="s">
+    <row r="55" spans="1:5" s="27" customFormat="1">
+      <c r="A55" s="27" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="26"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="23" t="s">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="64" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" s="21" customFormat="1" spans="1:1">
-      <c r="A61" s="21" t="s">
+    <row r="61" spans="1:5" s="19" customFormat="1">
+      <c r="A61" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" s="22" customFormat="1" spans="1:2">
-      <c r="A62" s="22" t="s">
+    <row r="62" spans="1:5" s="20" customFormat="1">
+      <c r="A62" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="20" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="61" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="21" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="61" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="26"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="23" t="s">
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="61" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="67" s="24" customFormat="1" spans="1:5">
-      <c r="A67" s="24" t="s">
+    <row r="67" spans="1:5" s="22" customFormat="1">
+      <c r="A67" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="40"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="26"/>
+      <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="26"/>
+      <c r="E69" s="24"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="E70" s="26"/>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="26"/>
-    </row>
-    <row r="72" s="22" customFormat="1" spans="1:5">
-      <c r="A72" s="22" t="s">
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" s="20" customFormat="1">
+      <c r="A72" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="38"/>
+      <c r="E72" s="36"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="61" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="21" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="65" t="s">
+      <c r="C74" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B75" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="26"/>
-    </row>
-    <row r="77" s="24" customFormat="1" spans="1:5">
-      <c r="A77" s="24" t="s">
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" s="22" customFormat="1">
+      <c r="A77" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="40"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="23" t="s">
+      <c r="E77" s="38"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="25"/>
+      <c r="D78" s="23"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="26"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="26"/>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="26"/>
-    </row>
-    <row r="82" s="22" customFormat="1" spans="1:1">
-      <c r="A82" s="22" t="s">
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="1:5" s="20" customFormat="1">
+      <c r="A82" s="20" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="23" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="65" t="s">
+      <c r="C84" s="61" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="23" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="61" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="26"/>
-    </row>
-    <row r="87" s="24" customFormat="1" spans="1:5">
-      <c r="A87" s="24" t="s">
+    <row r="86" spans="1:5">
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" s="22" customFormat="1">
+      <c r="A87" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="40"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="66" t="s">
+      <c r="B88" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="26"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B89" s="66" t="s">
+      <c r="B89" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="26"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="23" t="s">
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="61" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" s="21" customFormat="1" spans="1:1">
-      <c r="A93" s="21" t="s">
+    <row r="93" spans="1:5" s="19" customFormat="1">
+      <c r="A93" s="19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" s="22" customFormat="1" spans="1:1">
-      <c r="A94" s="22" t="s">
+    <row r="94" spans="1:5" s="20" customFormat="1">
+      <c r="A94" s="20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="95" s="27" customFormat="1" spans="1:1">
-      <c r="A95" s="27" t="s">
+    <row r="95" spans="1:5" s="25" customFormat="1">
+      <c r="A95" s="25" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="65" t="s">
+      <c r="B96" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="26"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="23" t="s">
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="61" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="65" t="s">
+      <c r="C97" s="61" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="23" t="s">
+    <row r="98" spans="1:13">
+      <c r="A98" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="62" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="99" ht="26" spans="1:3">
-      <c r="A99" s="23" t="s">
+    <row r="99" spans="1:13" ht="27.6">
+      <c r="A99" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="C99" s="65" t="s">
+      <c r="C99" s="61" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="23" t="s">
+    <row r="100" spans="1:13">
+      <c r="A100" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="E100" s="39" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="26"/>
-    </row>
-    <row r="102" s="27" customFormat="1" spans="1:1">
-      <c r="A102" s="27" t="s">
+    <row r="101" spans="1:13">
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="1:13" s="25" customFormat="1">
+      <c r="A102" s="25" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="23" t="s">
+    <row r="103" spans="1:13">
+      <c r="A103" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="61" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="26"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="23" t="s">
+      <c r="E103" s="24"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="61" t="s">
         <v>426</v>
       </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="26"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="23" t="s">
+      <c r="D104" s="23"/>
+      <c r="E104" s="24"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="62" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="106" ht="26" spans="1:11">
-      <c r="A106" s="23" t="s">
+    <row r="106" spans="1:13" ht="27.6">
+      <c r="A106" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="65" t="s">
+      <c r="B106" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="26"/>
-      <c r="I106" s="41"/>
-      <c r="K106" s="26"/>
+      <c r="E106" s="24"/>
+      <c r="I106" s="39"/>
+      <c r="K106" s="24"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="M107" s="26"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="23" t="s">
+      <c r="M107" s="24"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="39" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="110" s="22" customFormat="1" spans="1:1">
-      <c r="A110" s="22" t="s">
+    <row r="110" spans="1:13" s="20" customFormat="1">
+      <c r="A110" s="20" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="111" s="27" customFormat="1" spans="1:1">
-      <c r="A111" s="27" t="s">
+    <row r="111" spans="1:13" s="25" customFormat="1">
+      <c r="A111" s="25" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="23" t="s">
+    <row r="112" spans="1:13">
+      <c r="A112" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="65" t="s">
+      <c r="B112" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="26"/>
+      <c r="E112" s="24"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="65" t="s">
+      <c r="B113" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="C113" s="65" t="s">
+      <c r="C113" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="E113" s="26"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="23" t="s">
+      <c r="E113" s="24"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="65" t="s">
+      <c r="B114" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="C114" s="65" t="s">
+      <c r="C114" s="61" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="115" ht="26" spans="1:2">
-      <c r="A115" s="23" t="s">
+    <row r="115" spans="1:5" ht="27.6">
+      <c r="A115" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="61" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="23" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="61" t="s">
         <v>435</v>
       </c>
-      <c r="C116" s="65" t="s">
+      <c r="C116" s="61" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D117" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="21" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" s="27" customFormat="1" spans="1:1">
-      <c r="A119" s="27" t="s">
+    <row r="119" spans="1:5" s="25" customFormat="1">
+      <c r="A119" s="25" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="23" t="s">
+      <c r="A120" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="65" t="s">
+      <c r="B120" s="61" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="26"/>
+      <c r="E120" s="24"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B121" s="65" t="s">
+      <c r="B121" s="61" t="s">
         <v>426</v>
       </c>
-      <c r="E121" s="26"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="23" t="s">
+      <c r="E121" s="24"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B122" s="65" t="s">
+      <c r="B122" s="61" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="123" ht="26" spans="1:2">
-      <c r="A123" s="23" t="s">
+    <row r="123" spans="1:5" ht="27.6">
+      <c r="A123" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B123" s="65" t="s">
+      <c r="B123" s="61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="23" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="65" t="s">
+      <c r="B124" s="61" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="23" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="23" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="39" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="129" s="21" customFormat="1" spans="1:1">
-      <c r="A129" s="21" t="s">
+    <row r="129" spans="1:5" s="19" customFormat="1">
+      <c r="A129" s="19" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="130" s="22" customFormat="1" spans="1:1">
-      <c r="A130" s="22" t="s">
+    <row r="130" spans="1:5" s="20" customFormat="1">
+      <c r="A130" s="20" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="131" s="30" customFormat="1" spans="1:2">
-      <c r="A131" s="30" t="s">
+    <row r="131" spans="1:5" s="28" customFormat="1">
+      <c r="A131" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="28" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="23" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="21" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="23" t="s">
+      <c r="A133" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="65" t="s">
+      <c r="B133" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="26"/>
+      <c r="E133" s="24"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="41" t="s">
+      <c r="B134" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="E134" s="26"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="23" t="s">
+      <c r="E134" s="24"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="23" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="B136" s="65" t="s">
+      <c r="B136" s="61" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="goldbox@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="goldbox@2023"/>
-    <hyperlink ref="C4" r:id="rId2" display="goldbox@2023"/>
-    <hyperlink ref="C3" r:id="rId3" display="soumya@gmail.com"/>
-    <hyperlink ref="H30" r:id="rId4" display="White@#$%^&amp;"/>
-    <hyperlink ref="H35" r:id="rId5" display="Black@#$%^&amp;*("/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="H30" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="H35" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6636363636364" customWidth="1"/>
-    <col min="2" max="2" width="28.8909090909091" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-    </row>
-    <row r="39" ht="26" spans="1:4">
-      <c r="A39" s="23" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="27.6">
+      <c r="A39" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-    </row>
-    <row r="46" ht="26" spans="1:4">
-      <c r="A46" s="23" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" ht="27.6">
+      <c r="A46" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="61" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-    </row>
-    <row r="54" ht="26" spans="1:4">
-      <c r="A54" s="23" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" ht="27.6">
+      <c r="A54" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="61" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-    </row>
-    <row r="62" ht="26" spans="1:4">
-      <c r="A62" s="23" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" ht="27.6">
+      <c r="A62" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6636363636364" customWidth="1"/>
-    <col min="2" max="2" width="120.890909090909" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="120.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7708,204 +7147,202 @@
       <c r="A2" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>462</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.4454545454545" customWidth="1"/>
-    <col min="2" max="2" width="16.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1">
+      <c r="A10" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="65" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="55" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="55" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
@@ -7917,6 +7354,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test-proj\Gold-Box_Upto-Sprint_6\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8617075E-7AC5-42E1-B0F8-F2AAD8ED7735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A4074-A85E-4468-ABAE-CFA636905019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Sprint-5-Categ&amp;Sub-Negative" sheetId="9" r:id="rId9"/>
     <sheet name="Sprint-6 Negative" sheetId="10" r:id="rId10"/>
     <sheet name="GoldBharat" sheetId="11" r:id="rId11"/>
+    <sheet name="GoldBharatAdminPage" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="558">
   <si>
     <t>Schemes</t>
   </si>
@@ -2147,6 +2148,21 @@
   </si>
   <si>
     <t>H.NO:118, Cnr Quality, Alwal</t>
+  </si>
+  <si>
+    <t>otp</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>AdminLoginPage</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>4564564564</t>
   </si>
 </sst>
 </file>
@@ -2571,10 +2587,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3950,7 +3966,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3969,7 +3985,15 @@
         <v>544</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>234</v>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4021,13 +4045,56 @@
       <c r="A10" t="s">
         <v>551</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>552</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{F8F0BD1E-C133-4200-838B-FA6010808FED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCCEDF3-2A7F-4F32-BD50-4A5DEBA9F762}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D102B833-4E56-4CA1-9CF6-F1D87AE34A48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5320,20 +5387,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="40" customFormat="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="42" t="s">

--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test-proj\Gold-Box_Upto-Sprint_6\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A4AB6-19B4-4F51-AE8C-27C57CFC19EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -17,26 +23,15 @@
     <sheet name="ImagePath" sheetId="8" r:id="rId8"/>
     <sheet name="Sprint-5-Categ&amp;Sub-Negative" sheetId="9" r:id="rId9"/>
     <sheet name="Sprint-6 Negative" sheetId="10" r:id="rId10"/>
+    <sheet name="GoldBharat" sheetId="11" r:id="rId11"/>
+    <sheet name="GoldBharatAdminPage" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="568">
   <si>
     <t>Schemes</t>
   </si>
@@ -1030,7 +1025,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>AcNo2</t>
     </r>
@@ -1882,7 +1877,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>AddCategory</t>
     </r>
@@ -1891,7 +1886,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2123,25 +2118,100 @@
   </si>
   <si>
     <t>sdfghxcvb</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>RegistrationPage</t>
+  </si>
+  <si>
+    <t>BusinessName</t>
+  </si>
+  <si>
+    <t>pavani.kaka@gmail.com</t>
+  </si>
+  <si>
+    <t>PersonName</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>11-05-2024</t>
+  </si>
+  <si>
+    <t>Business Address</t>
+  </si>
+  <si>
+    <t>H.NO:118, Cnr Quality, Alwal</t>
+  </si>
+  <si>
+    <t>otp</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>AdminLoginPage</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>Silverlimit</t>
+  </si>
+  <si>
+    <t>Goldlimit</t>
+  </si>
+  <si>
+    <t>8331827870</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>ABCDE1234E</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>1400001234560</t>
+  </si>
+  <si>
+    <t>IFSCCode</t>
+  </si>
+  <si>
+    <t>SBIN0011755</t>
+  </si>
+  <si>
+    <t>HolderName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2170,25 +2240,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A3E3E"/>
-      <name val="Consolas"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2236,7 +2294,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2250,7 +2308,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2278,7 +2336,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2311,136 +2369,8 @@
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="48">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2449,7 +2379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,7 +2439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,13 +2451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,176 +2485,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2732,449 +2494,146 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3432,33 +2891,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="$A29:$XFD46"/>
+      <selection activeCell="A29" sqref="A29:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="67" customFormat="1" spans="7:7">
-      <c r="G1" s="69" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3466,25 +2925,25 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="53" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3492,25 +2951,25 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3518,25 +2977,25 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="53" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="53" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3544,25 +3003,25 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3570,25 +3029,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="53" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="53" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3596,25 +3055,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="71" t="s">
+      <c r="K8" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3622,25 +3081,25 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="53" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="53" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3648,25 +3107,25 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3674,25 +3133,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="53" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3700,25 +3159,25 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3726,25 +3185,25 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="53" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3752,29 +3211,29 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
+    <row r="16" spans="1:11">
       <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
@@ -3783,31 +3242,31 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="53" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="53" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="53" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="53" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3815,31 +3274,31 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="53" t="s">
         <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="71" t="s">
+      <c r="M18" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3847,31 +3306,31 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="53" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="53" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="53" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3879,45 +3338,45 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="53" t="s">
         <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="10:13">
+    <row r="21" spans="1:13">
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="53" t="s">
         <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="53" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3925,31 +3384,31 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="53" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3957,31 +3416,31 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="53" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3989,31 +3448,31 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="53" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="53" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4021,192 +3480,189 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="53" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" s="68" customFormat="1" spans="1:1">
-      <c r="A29" s="68" t="s">
+    <row r="29" spans="1:13" s="51" customFormat="1">
+      <c r="A29" s="51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" s="10" customFormat="1" spans="1:2">
-      <c r="A30" s="70" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" spans="1:2">
-      <c r="A31" s="70" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" s="10" customFormat="1" spans="1:2">
-      <c r="A32" s="70" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="1" spans="1:2">
-      <c r="A33" s="70" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:2">
-      <c r="A34" s="70" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:2">
-      <c r="A35" s="70" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" s="10" customFormat="1" spans="1:2">
-      <c r="A36" s="70" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="10" customFormat="1" spans="1:2">
-      <c r="A37" s="70" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="1" spans="1:2">
-      <c r="A38" s="70" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" s="10" customFormat="1" spans="1:2">
-      <c r="A39" s="70" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="1" spans="1:2">
-      <c r="A40" s="70" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" s="10" customFormat="1" spans="1:2">
-      <c r="A41" s="70" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="1" spans="1:2">
-      <c r="A42" s="70" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:2">
-      <c r="A43" s="70" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" s="10" customFormat="1"/>
-    <row r="45" s="68" customFormat="1" spans="1:1">
-      <c r="A45" s="68" t="s">
+    <row r="45" spans="1:2" s="51" customFormat="1">
+      <c r="A45" s="51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" s="10" customFormat="1" spans="1:2">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="36.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111"/>
-    <col min="7" max="7" width="11.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>486</v>
       </c>
@@ -4215,19 +3671,19 @@
       <c r="A2" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="53" t="s">
         <v>294</v>
       </c>
       <c r="C2" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="53" t="s">
         <v>487</v>
       </c>
       <c r="E2" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="66" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4247,7 +3703,7 @@
       <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="66" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4255,638 +3711,831 @@
       <c r="A4" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="53" t="s">
         <v>495</v>
       </c>
       <c r="C4" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="53" t="s">
         <v>495</v>
       </c>
       <c r="E4" t="s">
         <v>477</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="66" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="5:6">
+    <row r="5" spans="1:6">
       <c r="E5" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="66" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:1">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>499</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" t="s">
+        <v>510</v>
+      </c>
+      <c r="C20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>513</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>526</v>
+      </c>
+      <c r="B30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>531</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>532</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>533</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>532</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>534</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="F36" t="s">
+        <v>535</v>
+      </c>
+      <c r="G36" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1">
+      <c r="A37" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>538</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" t="s">
+        <v>541</v>
+      </c>
+      <c r="C41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" t="s">
-        <v>500</v>
-      </c>
-      <c r="C7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>130</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>551</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="B11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B16" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>505</v>
-      </c>
-      <c r="B17" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C20" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="87" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>524</v>
-      </c>
-      <c r="B29" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>526</v>
-      </c>
-      <c r="B30" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>531</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>532</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>533</v>
-      </c>
-      <c r="B34" s="71" t="s">
-        <v>532</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>534</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7">
-      <c r="F36" t="s">
-        <v>535</v>
-      </c>
-      <c r="G36" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="37" s="4" customFormat="1" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>374</v>
-      </c>
-      <c r="B38" s="71" t="s">
-        <v>538</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>374</v>
-      </c>
-      <c r="B41" t="s">
-        <v>541</v>
-      </c>
-      <c r="C41" t="s">
-        <v>542</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{F8F0BD1E-C133-4200-838B-FA6010808FED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCCEDF3-2A7F-4F32-BD50-4A5DEBA9F762}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D102B833-4E56-4CA1-9CF6-F1D87AE34A48}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="50" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="50" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="50" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="50" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="50" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="50" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="50" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="50" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="50" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="50" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="50" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="50" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="50" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="50" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="50" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="50" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="50" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="50" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="50" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="50" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="50" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="50" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="50" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="50" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="50" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="50" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="50" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="50" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="50" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="50" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="50" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="50" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="5" width="22.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="15.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="23.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="20.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="22.4444444444444" customWidth="1"/>
+    <col min="3" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -4897,36 +4546,36 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="45" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="53" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="43" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4962,13 +4611,13 @@
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="53" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4990,55 +4639,55 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="44" t="s">
         <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="53" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="44" t="s">
         <v>161</v>
       </c>
       <c r="G16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -5049,7 +4698,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -5060,7 +4709,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -5071,18 +4720,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="53" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -5094,28 +4743,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="43" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5149,10 +4798,10 @@
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="53" t="s">
         <v>185</v>
       </c>
       <c r="D25" t="s">
@@ -5161,10 +4810,10 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="53" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
@@ -5184,7 +4833,7 @@
       <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="44" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
@@ -5227,43 +4876,43 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="71" t="s">
+      <c r="I28" s="53" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -5273,7 +4922,7 @@
       <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="61"/>
+      <c r="D31" s="8"/>
       <c r="G31" t="s">
         <v>200</v>
       </c>
@@ -5281,27 +4930,27 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="53" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -5318,7 +4967,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -5335,7 +4984,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -5352,12 +5001,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="63" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="47" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -5380,19 +5029,19 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="56" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="43" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="56"/>
+    <row r="40" spans="1:9">
+      <c r="A40" s="43"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="53" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
@@ -5401,7 +5050,7 @@
       <c r="D41">
         <v>12345</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="53" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
@@ -5418,25 +5067,25 @@
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="45" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5444,34 +5093,34 @@
       <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="75" t="s">
+      <c r="G43" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="75" t="s">
+      <c r="H43" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="71" t="s">
+      <c r="I43" s="53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="56" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="43" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -5482,44 +5131,44 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="53" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="53" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="53" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="53" t="s">
         <v>245</v>
       </c>
       <c r="C51" t="s">
@@ -5527,18 +5176,18 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="43" t="s">
         <v>248</v>
       </c>
       <c r="D53" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="64"/>
+    <row r="54" spans="1:4">
+      <c r="D54" s="48"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -5558,10 +5207,10 @@
       <c r="A56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="53" t="s">
         <v>252</v>
       </c>
       <c r="D56" t="s">
@@ -5572,7 +5221,7 @@
       <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="46" t="s">
         <v>254</v>
       </c>
       <c r="C57" t="s">
@@ -5586,10 +5235,10 @@
       <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="44" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
@@ -5600,13 +5249,13 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="18" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5614,13 +5263,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="18" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5628,10 +5277,10 @@
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="53" t="s">
         <v>264</v>
       </c>
       <c r="D61" t="s">
@@ -5642,24 +5291,24 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="65" t="s">
+      <c r="D62" s="49" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="64"/>
+      <c r="D64" s="48"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -5668,7 +5317,7 @@
       <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="44" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
@@ -5693,13 +5342,13 @@
       <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="18" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5707,10 +5356,10 @@
       <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="53" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
@@ -5731,12 +5380,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="56" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="43" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>276</v>
       </c>
@@ -5747,18 +5396,18 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="53" t="s">
         <v>279</v>
       </c>
       <c r="C75" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -5769,7 +5418,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -5780,7 +5429,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -5793,84 +5442,82 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="vikram.xyug@gmail.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="pavanikaka2@gmail.com" tooltip="mailto:pavanikaka2@gmail.com"/>
-    <hyperlink ref="B42" r:id="rId3" display="123@gmail.com"/>
-    <hyperlink ref="C42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="D42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="E42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="G42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="C58" r:id="rId5" display="Hyd@#"/>
-    <hyperlink ref="H42" r:id="rId6" display="148@#$"/>
-    <hyperlink ref="I42" r:id="rId4" display="pavanikaka@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId7" display="King@34"/>
-    <hyperlink ref="B16" r:id="rId8" display="Hyderabad@$12"/>
-    <hyperlink ref="E26" r:id="rId9" display="ASdfdwetr@!#$%321"/>
-    <hyperlink ref="E28" r:id="rId10" display="A1@k12"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" tooltip="mailto:pavanikaka2@gmail.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B42" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C42" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D42" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E42" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G42" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C58" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H42" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="I42" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="E26" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="52" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" style="52" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="52"/>
+    <col min="1" max="1" width="13.109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="1" spans="1:12">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:12" s="40" customFormat="1">
+      <c r="A1" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="54" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="42" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="57" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="58" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="58" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5879,1783 +5526,1777 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="32" customWidth="1"/>
-    <col min="2" max="2" width="25.1111111111111" style="32" customWidth="1"/>
-    <col min="3" max="3" width="23.2222222222222" style="32" customWidth="1"/>
-    <col min="4" max="4" width="22.1111111111111" style="32" customWidth="1"/>
-    <col min="5" max="5" width="14" style="32" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" style="32" customWidth="1"/>
-    <col min="7" max="7" width="22.2222222222222" style="32" customWidth="1"/>
-    <col min="8" max="8" width="17.8888888888889" style="32" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="32"/>
-    <col min="10" max="10" width="19.5555555555556" style="32" customWidth="1"/>
-    <col min="11" max="11" width="24.7777777777778" style="32" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="32"/>
+    <col min="1" max="1" width="23.44140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="21"/>
+    <col min="10" max="10" width="19.5546875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" spans="1:1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:3" s="26" customFormat="1">
+      <c r="A1" s="26" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="1" spans="1:1">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:3" s="27" customFormat="1">
+      <c r="A2" s="27" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="29" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" s="38" customFormat="1" spans="1:1">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:3" s="27" customFormat="1">
+      <c r="A6" s="27" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="30" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" s="31" customFormat="1" spans="1:1">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:3" s="20" customFormat="1">
+      <c r="A9" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" s="38" customFormat="1" spans="1:1">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:3" s="27" customFormat="1">
+      <c r="A12" s="27" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="30" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" s="31" customFormat="1" spans="1:1">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:3" s="20" customFormat="1">
+      <c r="A15" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="21" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" s="31" customFormat="1" spans="1:1">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:11" s="20" customFormat="1">
+      <c r="A19" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="32" t="s">
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" s="38" customFormat="1" spans="1:1">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:11" s="27" customFormat="1">
+      <c r="A23" s="27" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" s="31" customFormat="1" spans="1:10">
-      <c r="A26" s="31" t="s">
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" s="20" customFormat="1">
+      <c r="A26" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:11" ht="27.6">
+      <c r="A27" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="21" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="21" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="21" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="1:11">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:11" ht="14.4">
+      <c r="A30" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="21" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="80" t="s">
+      <c r="K31" s="61" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="21" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="21" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="80" t="s">
+      <c r="K34" s="61" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="35" ht="14.4" spans="1:11">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:11" ht="14.4">
+      <c r="A35" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="80" t="s">
+      <c r="K35" s="61" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="80" t="s">
+      <c r="H36" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="80" t="s">
+      <c r="K36" s="61" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="80" t="s">
+      <c r="H37" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" s="31" customFormat="1" spans="1:1">
-      <c r="A39" s="45" t="s">
+    <row r="39" spans="1:11" s="20" customFormat="1">
+      <c r="A39" s="34" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="32" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="35" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="61" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="32" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="35"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="35"/>
-    </row>
-    <row r="45" s="31" customFormat="1" spans="1:1">
-      <c r="A45" s="47" t="s">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" s="20" customFormat="1">
+      <c r="A45" s="36" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="32" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="21" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="32" t="s">
+    <row r="47" spans="1:11">
+      <c r="C47" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="21" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" s="38" customFormat="1" spans="1:1">
-      <c r="A48" s="48" t="s">
+    <row r="48" spans="1:11" s="27" customFormat="1">
+      <c r="A48" s="37" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="32" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="62" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="32" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="61" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="32" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="63" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="35"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="32" t="s">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="61" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" s="38" customFormat="1" spans="1:1">
-      <c r="A55" s="38" t="s">
+    <row r="55" spans="1:5" s="27" customFormat="1">
+      <c r="A55" s="27" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="35"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="32" t="s">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="64" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" s="30" customFormat="1" spans="1:1">
-      <c r="A61" s="30" t="s">
+    <row r="61" spans="1:5" s="19" customFormat="1">
+      <c r="A61" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" s="31" customFormat="1" spans="1:2">
-      <c r="A62" s="31" t="s">
+    <row r="62" spans="1:5" s="20" customFormat="1">
+      <c r="A62" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="20" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="61" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="21" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="80" t="s">
+      <c r="B64" s="61" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="35"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="32" t="s">
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="61" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="67" s="33" customFormat="1" spans="1:5">
-      <c r="A67" s="33" t="s">
+    <row r="67" spans="1:5" s="22" customFormat="1">
+      <c r="A67" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="49"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="35"/>
+      <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="35"/>
+      <c r="E69" s="24"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="80" t="s">
+      <c r="B70" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="E70" s="35"/>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="35"/>
-    </row>
-    <row r="72" s="31" customFormat="1" spans="1:5">
-      <c r="A72" s="31" t="s">
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" s="20" customFormat="1">
+      <c r="A72" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="47"/>
+      <c r="E72" s="36"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="61" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="21" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="80" t="s">
+      <c r="B74" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="35"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="35"/>
-    </row>
-    <row r="77" s="33" customFormat="1" spans="1:5">
-      <c r="A77" s="33" t="s">
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" s="22" customFormat="1">
+      <c r="A77" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="49"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="32" t="s">
+      <c r="E77" s="38"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="23"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="81" t="s">
+      <c r="B79" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="35"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="80" t="s">
+      <c r="B80" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="35"/>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="35"/>
-    </row>
-    <row r="82" s="31" customFormat="1" spans="1:1">
-      <c r="A82" s="31" t="s">
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="1:5" s="20" customFormat="1">
+      <c r="A82" s="20" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="32" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="61" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="32" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="80" t="s">
+      <c r="B85" s="61" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="35"/>
-    </row>
-    <row r="87" s="33" customFormat="1" spans="1:5">
-      <c r="A87" s="33" t="s">
+    <row r="86" spans="1:5">
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" s="22" customFormat="1">
+      <c r="A87" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="49"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="81" t="s">
+      <c r="B88" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="35"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="35"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="32" t="s">
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="80" t="s">
+      <c r="B90" s="61" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" s="30" customFormat="1" spans="1:1">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:5" s="19" customFormat="1">
+      <c r="A93" s="19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" s="31" customFormat="1" spans="1:1">
-      <c r="A94" s="31" t="s">
+    <row r="94" spans="1:5" s="20" customFormat="1">
+      <c r="A94" s="20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="95" s="36" customFormat="1" spans="1:1">
-      <c r="A95" s="36" t="s">
+    <row r="95" spans="1:5" s="25" customFormat="1">
+      <c r="A95" s="25" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="80" t="s">
+      <c r="B96" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="35"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="32" t="s">
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="80" t="s">
+      <c r="B97" s="61" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="80" t="s">
+      <c r="C97" s="61" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="32" t="s">
+    <row r="98" spans="1:13">
+      <c r="A98" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="80" t="s">
+      <c r="B98" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="C98" s="81" t="s">
+      <c r="C98" s="62" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="99" ht="27.6" spans="1:3">
-      <c r="A99" s="32" t="s">
+    <row r="99" spans="1:13" ht="27.6">
+      <c r="A99" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="80" t="s">
+      <c r="B99" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="61" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="32" t="s">
+    <row r="100" spans="1:13">
+      <c r="A100" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="50" t="s">
+      <c r="E100" s="39" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="35"/>
-    </row>
-    <row r="102" s="36" customFormat="1" spans="1:1">
-      <c r="A102" s="36" t="s">
+    <row r="101" spans="1:13">
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="1:13" s="25" customFormat="1">
+      <c r="A102" s="25" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="32" t="s">
+    <row r="103" spans="1:13">
+      <c r="A103" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="80" t="s">
+      <c r="B103" s="61" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="35"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="32" t="s">
+      <c r="E103" s="24"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B104" s="80" t="s">
+      <c r="B104" s="61" t="s">
         <v>426</v>
       </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="35"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="32" t="s">
+      <c r="D104" s="23"/>
+      <c r="E104" s="24"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="62" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="106" ht="27.6" spans="1:11">
-      <c r="A106" s="32" t="s">
+    <row r="106" spans="1:13" ht="27.6">
+      <c r="A106" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="80" t="s">
+      <c r="B106" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="35"/>
-      <c r="I106" s="50"/>
-      <c r="K106" s="35"/>
+      <c r="E106" s="24"/>
+      <c r="I106" s="39"/>
+      <c r="K106" s="24"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="M107" s="35"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="32" t="s">
+      <c r="M107" s="24"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="50" t="s">
+      <c r="B108" s="39" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="110" s="31" customFormat="1" spans="1:1">
-      <c r="A110" s="31" t="s">
+    <row r="110" spans="1:13" s="20" customFormat="1">
+      <c r="A110" s="20" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="111" s="36" customFormat="1" spans="1:1">
-      <c r="A111" s="36" t="s">
+    <row r="111" spans="1:13" s="25" customFormat="1">
+      <c r="A111" s="25" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="32" t="s">
+    <row r="112" spans="1:13">
+      <c r="A112" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="80" t="s">
+      <c r="B112" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="35"/>
+      <c r="E112" s="24"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="80" t="s">
+      <c r="B113" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="C113" s="80" t="s">
+      <c r="C113" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="E113" s="35"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="32" t="s">
+      <c r="E113" s="24"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="80" t="s">
+      <c r="B114" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="C114" s="80" t="s">
+      <c r="C114" s="61" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="115" ht="27.6" spans="1:2">
-      <c r="A115" s="32" t="s">
+    <row r="115" spans="1:5" ht="27.6">
+      <c r="A115" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="80" t="s">
+      <c r="B115" s="61" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="32" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B116" s="80" t="s">
+      <c r="B116" s="61" t="s">
         <v>435</v>
       </c>
-      <c r="C116" s="80" t="s">
+      <c r="C116" s="61" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="32" t="s">
+      <c r="A117" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="D117" s="32" t="s">
+      <c r="D117" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E117" s="32" t="s">
+      <c r="E117" s="21" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" s="36" customFormat="1" spans="1:1">
-      <c r="A119" s="36" t="s">
+    <row r="119" spans="1:5" s="25" customFormat="1">
+      <c r="A119" s="25" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="80" t="s">
+      <c r="B120" s="61" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="35"/>
+      <c r="E120" s="24"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B121" s="80" t="s">
+      <c r="B121" s="61" t="s">
         <v>426</v>
       </c>
-      <c r="E121" s="35"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="32" t="s">
+      <c r="E121" s="24"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B122" s="80" t="s">
+      <c r="B122" s="61" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="123" ht="27.6" spans="1:2">
-      <c r="A123" s="32" t="s">
+    <row r="123" spans="1:5" ht="27.6">
+      <c r="A123" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B123" s="80" t="s">
+      <c r="B123" s="61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="32" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="80" t="s">
+      <c r="B124" s="61" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="32" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B125" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="32" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="39" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="129" s="30" customFormat="1" spans="1:1">
-      <c r="A129" s="30" t="s">
+    <row r="129" spans="1:5" s="19" customFormat="1">
+      <c r="A129" s="19" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="130" s="31" customFormat="1" spans="1:1">
-      <c r="A130" s="31" t="s">
+    <row r="130" spans="1:5" s="20" customFormat="1">
+      <c r="A130" s="20" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="131" s="39" customFormat="1" spans="1:2">
-      <c r="A131" s="39" t="s">
+    <row r="131" spans="1:5" s="28" customFormat="1">
+      <c r="A131" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="28" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="32" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="B132" s="21" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="32" t="s">
+      <c r="A133" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="80" t="s">
+      <c r="B133" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="35"/>
+      <c r="E133" s="24"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="50" t="s">
+      <c r="B134" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="E134" s="35"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="32" t="s">
+      <c r="E134" s="24"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="32" t="s">
+      <c r="B135" s="21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="32" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="B136" s="80" t="s">
+      <c r="B136" s="61" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="goldbox@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="goldbox@2023"/>
-    <hyperlink ref="C4" r:id="rId2" display="goldbox@2023"/>
-    <hyperlink ref="C3" r:id="rId3" display="soumya@gmail.com"/>
-    <hyperlink ref="H30" r:id="rId4" display="White@#$%^&amp;"/>
-    <hyperlink ref="H35" r:id="rId5" display="Black@#$%^&amp;*("/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="H30" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="H35" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="28.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" ht="27.6" spans="1:4">
-      <c r="A39" s="32" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="27.6">
+      <c r="A39" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" ht="27.6" spans="1:4">
-      <c r="A46" s="32" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" ht="27.6">
+      <c r="A46" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="61" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-    </row>
-    <row r="54" ht="27.6" spans="1:4">
-      <c r="A54" s="32" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" ht="27.6">
+      <c r="A54" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="61" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B60" s="80" t="s">
+      <c r="B60" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-    </row>
-    <row r="62" ht="27.6" spans="1:4">
-      <c r="A62" s="32" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" ht="27.6">
+      <c r="A62" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B62" s="80" t="s">
+      <c r="B62" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="120.888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="120.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="18" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7663,216 +7304,212 @@
       <c r="A2" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="18" t="s">
         <v>462</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="10"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:2">
-      <c r="A10" s="19" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1">
+      <c r="A10" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="15" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="65" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="55" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="55" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>484</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" t="s">
         <v>485</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>